--- a/libro11.xlsx
+++ b/libro11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fhern\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C45B7-2239-46E1-B150-72EB2D79691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740849EF-C913-4DD9-8D03-4CF0B7B654F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF49AC24-E085-4A3C-A4A0-71507D54DF41}"/>
   </bookViews>
@@ -624,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57D1B4-E4F0-47B0-A0F2-0F1CC5EF522B}">
-  <dimension ref="B3:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -635,299 +635,299 @@
     <col min="2" max="2" width="18.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1100</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>1101</v>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1102</v>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1103</v>
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1104</v>
+    <row r="8" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>1106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>1107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>1108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>1109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14"/>
       <c r="D14"/>

--- a/libro11.xlsx
+++ b/libro11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fhern\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740849EF-C913-4DD9-8D03-4CF0B7B654F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF3423-27C0-44D7-AA17-B3F2491767E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF49AC24-E085-4A3C-A4A0-71507D54DF41}"/>
   </bookViews>
@@ -47,18 +47,9 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Día</t>
-  </si>
-  <si>
     <t>Hora</t>
   </si>
   <si>
-    <t>Clínica</t>
-  </si>
-  <si>
     <t>MARCO ANTONIO</t>
   </si>
   <si>
@@ -228,6 +219,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Clinica</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -672,25 +672,25 @@
         <v>1100</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -698,25 +698,25 @@
         <v>1101</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -724,25 +724,25 @@
         <v>1102</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -750,25 +750,25 @@
         <v>1103</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -776,25 +776,25 @@
         <v>1104</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -802,25 +802,25 @@
         <v>1105</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -828,25 +828,25 @@
         <v>1106</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -854,25 +854,25 @@
         <v>1107</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -880,25 +880,25 @@
         <v>1108</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -906,25 +906,25 @@
         <v>1109</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">

--- a/libro11.xlsx
+++ b/libro11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fhern\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF3423-27C0-44D7-AA17-B3F2491767E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965634ED-BCF5-4EC4-8F9A-954FDC6A06E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF49AC24-E085-4A3C-A4A0-71507D54DF41}"/>
+    <workbookView xWindow="60" yWindow="600" windowWidth="22980" windowHeight="12360" xr2:uid="{FF49AC24-E085-4A3C-A4A0-71507D54DF41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>Nombres</t>
   </si>
@@ -228,6 +228,135 @@
   </si>
   <si>
     <t>Clinica</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Morales Cruz</t>
+  </si>
+  <si>
+    <t>santiago.morales99@gmail.com</t>
+  </si>
+  <si>
+    <t>7012-1234</t>
+  </si>
+  <si>
+    <t>Lunes y miércoles</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Gómez Herrera</t>
+  </si>
+  <si>
+    <t>camila.gomez12@yahoo.com</t>
+  </si>
+  <si>
+    <t>7721-5678</t>
+  </si>
+  <si>
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Castro López</t>
+  </si>
+  <si>
+    <t>matias.castro21@hotmail.com</t>
+  </si>
+  <si>
+    <t>7534-6789</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Sofía</t>
+  </si>
+  <si>
+    <t>Ramírez Torres</t>
+  </si>
+  <si>
+    <t>sofia.ramirez90@gmail.com</t>
+  </si>
+  <si>
+    <t>7623-9876</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Pérez Martínez</t>
+  </si>
+  <si>
+    <t>andres.perez44@gmail.com</t>
+  </si>
+  <si>
+    <t>7256-4321</t>
+  </si>
+  <si>
+    <t>1:00 pm a 5:00 pm</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Hernández Mejía</t>
+  </si>
+  <si>
+    <t>isabella.hdz34@gmail.com</t>
+  </si>
+  <si>
+    <t>7018-5543</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Vargas Díaz</t>
+  </si>
+  <si>
+    <t>7812-2345</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Ortiz Rodríguez</t>
+  </si>
+  <si>
+    <t>valentina.ortiz15@gmail.com</t>
+  </si>
+  <si>
+    <t>7589-8765</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Sánchez Aguilar</t>
+  </si>
+  <si>
+    <t>martin.sanchez99@gmail.com</t>
+  </si>
+  <si>
+    <t>6842-2233</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>López Morales</t>
+  </si>
+  <si>
+    <t>emilia.lopez@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -276,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -289,6 +418,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57D1B4-E4F0-47B0-A0F2-0F1CC5EF522B}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -897,9 +1032,7 @@
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -927,14 +1060,253 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1110</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="A14" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1118</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
